--- a/ChatGPT_Projects/Data.xlsx
+++ b/ChatGPT_Projects/Data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LANNGO_PROJECTS\GPKD\HoSoDoanhNghiep\ChatGPT_Projects\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HoSoDoanhNghiep\ChatGPT_Projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="137">
   <si>
     <t>TruongDuLieu</t>
   </si>
@@ -419,13 +418,31 @@
   </si>
   <si>
     <t>Trụ sở-số điện thoại</t>
+  </si>
+  <si>
+    <t>ThoiGianDangKy</t>
+  </si>
+  <si>
+    <t>ngày  04 tháng 03 năm 2025</t>
+  </si>
+  <si>
+    <t>Thời gian đăng ký</t>
+  </si>
+  <si>
+    <t>MaSoThue</t>
+  </si>
+  <si>
+    <t>Mã số thuế</t>
+  </si>
+  <si>
+    <t>TinhTrangThanhLap</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -461,6 +478,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="13"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color rgb="FF333E48"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -482,12 +513,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -768,20 +801,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C63"/>
+  <dimension ref="A1:C66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="B66" sqref="B66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="32" customWidth="1"/>
-    <col min="2" max="2" width="46.140625" customWidth="1"/>
-    <col min="3" max="3" width="183.140625" customWidth="1"/>
+    <col min="2" max="2" width="46.109375" customWidth="1"/>
+    <col min="3" max="3" width="183.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -792,7 +825,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="4" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -803,7 +836,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="4" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -814,7 +847,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="4" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
@@ -825,7 +858,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:3" s="4" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
@@ -836,532 +869,559 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:3" s="4" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C7" s="4" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="7" spans="1:3" s="4" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
+    <row r="8" spans="1:3" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C8" s="4" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="8" spans="1:3" s="4" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
+    <row r="9" spans="1:3" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="4" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>115</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="B10" s="3"/>
+        <v>134</v>
+      </c>
+      <c r="B10" s="6">
+        <v>3703061033</v>
+      </c>
       <c r="C10" s="4" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="4" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="4" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="4" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="4" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="4" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" s="4" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>7</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="B17" s="3"/>
       <c r="C17" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" s="4" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
-        <v>23</v>
+        <v>123</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" s="4" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19" s="3"/>
+        <v>14</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="C19" s="4" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" s="4" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" s="4" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="4" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" s="4" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="4" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" s="4" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="4" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" s="4" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="4" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" s="4" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B25" s="3"/>
       <c r="C25" s="4" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" s="4" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B26" s="3"/>
       <c r="C26" s="4" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" s="4" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
-        <v>113</v>
+        <v>21</v>
       </c>
       <c r="B27" s="3"/>
       <c r="C27" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" s="4" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
-        <v>114</v>
+        <v>22</v>
       </c>
       <c r="B28" s="3"/>
       <c r="C28" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" s="4" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
-        <v>24</v>
+        <v>113</v>
       </c>
       <c r="B29" s="3"/>
       <c r="C29" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" s="4" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
-        <v>26</v>
+        <v>114</v>
       </c>
       <c r="B30" s="3"/>
       <c r="C30" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" s="4" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" s="4" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B32" s="3"/>
       <c r="C32" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" s="4" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B33" s="3"/>
       <c r="C33" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" s="4" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B34" s="3"/>
       <c r="C34" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" s="4" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B35" s="3"/>
       <c r="C35" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" s="4" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B36" s="3"/>
       <c r="C36" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" s="4" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B37" s="3"/>
       <c r="C37" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" s="4" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B38" s="3"/>
       <c r="C38" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" s="4" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="B39" s="3"/>
       <c r="C39" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" s="4" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B40" s="3"/>
       <c r="C40" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B41" s="3"/>
       <c r="C41" s="4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A42" s="3" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="B42" s="3"/>
       <c r="C42" s="4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A43" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B43" s="3"/>
       <c r="C43" s="4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A44" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B44" s="3"/>
       <c r="C44" s="4" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B45" s="3"/>
       <c r="C45" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B46" s="3"/>
       <c r="C46" s="4" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A47" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B47" s="3"/>
       <c r="C47" s="4" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A48" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B48" s="3"/>
       <c r="C48" s="4" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A49" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B49" s="3"/>
       <c r="C49" s="4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A50" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B50" s="3"/>
       <c r="C50" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A51" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B51" s="3"/>
       <c r="C51" s="4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A52" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B52" s="3"/>
       <c r="C52" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A53" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B53" s="3"/>
       <c r="C53" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A54" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B54" s="3"/>
       <c r="C54" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A55" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B55" s="3"/>
       <c r="C55" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A56" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B56" s="3"/>
       <c r="C56" s="4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A57" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B57" s="3"/>
       <c r="C57" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A58" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B58" s="3"/>
       <c r="C58" s="4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A59" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B59" s="3"/>
       <c r="C59" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A60" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B60" s="3"/>
       <c r="C60" s="4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A61" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B61" s="3"/>
       <c r="C61" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A62" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B62" s="3"/>
       <c r="C62" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A63" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B63" s="3"/>
       <c r="C63" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A64" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B64" s="3"/>
+      <c r="C64" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A65" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B65" s="3"/>
+      <c r="C65" s="4" t="s">
         <v>90</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A66" s="3" t="s">
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -1378,84 +1438,84 @@
       <selection activeCell="A16" sqref="A16:XFD23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="109.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="109.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
       <c r="C1" s="4"/>
     </row>
-    <row r="2" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="4"/>
     </row>
-    <row r="3" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="4"/>
     </row>
-    <row r="4" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="4"/>
     </row>
-    <row r="5" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="4"/>
     </row>
-    <row r="6" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="4"/>
     </row>
-    <row r="7" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="4"/>
     </row>
-    <row r="8" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="4"/>
     </row>
-    <row r="9" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="4"/>
     </row>
-    <row r="10" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="4"/>
     </row>
-    <row r="12" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="4"/>
     </row>
-    <row r="13" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="4"/>
     </row>
-    <row r="14" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="4"/>
     </row>
-    <row r="15" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="4"/>
     </row>
-    <row r="16" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>115</v>
       </c>
@@ -1464,7 +1524,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>117</v>
       </c>
@@ -1473,7 +1533,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>118</v>
       </c>
@@ -1482,7 +1542,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>119</v>
       </c>
@@ -1491,7 +1551,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>120</v>
       </c>
@@ -1500,7 +1560,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>121</v>
       </c>
@@ -1509,7 +1569,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
         <v>122</v>
       </c>
@@ -1518,7 +1578,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
         <v>123</v>
       </c>

--- a/ChatGPT_Projects/Data.xlsx
+++ b/ChatGPT_Projects/Data.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="167">
   <si>
     <t>TruongDuLieu</t>
   </si>
@@ -84,9 +84,6 @@
     <t>DDPL_QuocTich</t>
   </si>
   <si>
-    <t>DDPL_LoaiGiayTo</t>
-  </si>
-  <si>
     <t>DDPL_SoGiayTo</t>
   </si>
   <si>
@@ -204,9 +201,6 @@
     <t>ChuSoHuu_QuocTich</t>
   </si>
   <si>
-    <t>ChuSoHuu_LoaiGiayTo</t>
-  </si>
-  <si>
     <t>ChuSoHuu_SoGiayTo</t>
   </si>
   <si>
@@ -315,9 +309,6 @@
     <t>Chủ sở hữu-Quốc tịch</t>
   </si>
   <si>
-    <t>Chủ sở hữu-Loại giấy tờ[Chứng minh nhân dân,Hộ chiếu nước ngoài,Hộ chiếu,Chứng minh nhân dân,Loại khác (ghi rõ)]</t>
-  </si>
-  <si>
     <t>Chủ sở hữu-Số giấy tờ</t>
   </si>
   <si>
@@ -345,9 +336,6 @@
     <t>Đại diện pháp luật-Quốc tịch</t>
   </si>
   <si>
-    <t>Đại diện pháp luật-Loại giấy tờ[Chứng minh nhân dân,Hộ chiếu nước ngoài,Hộ chiếu,Chứng minh nhân dân,Loại khác (ghi rõ)]</t>
-  </si>
-  <si>
     <t>Đại diện pháp luật-Số giấy tờ</t>
   </si>
   <si>
@@ -435,14 +423,116 @@
     <t>Mã số thuế</t>
   </si>
   <si>
-    <t>TinhTrangThanhLap</t>
+    <t>1_1</t>
+  </si>
+  <si>
+    <t>Tình trạng thành lập-Thành lập mới</t>
+  </si>
+  <si>
+    <t>1_2</t>
+  </si>
+  <si>
+    <t>1_3</t>
+  </si>
+  <si>
+    <t>1_4</t>
+  </si>
+  <si>
+    <t>1_5</t>
+  </si>
+  <si>
+    <t>1_6</t>
+  </si>
+  <si>
+    <t>Tình trạng thành lập-tách doanh nghiệp</t>
+  </si>
+  <si>
+    <t>Tình trạng thành lập-chia doanh nghiệp</t>
+  </si>
+  <si>
+    <t>Tình trạng thành lập-hợp nhất doanh nghiệp</t>
+  </si>
+  <si>
+    <t>Tình trạng thành lập-chuyển đổi loại hình doanh nghiệp</t>
+  </si>
+  <si>
+    <t>Tình trạng thành lập-chuyển đổi từ hộ kinh doanh</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>2_1</t>
+  </si>
+  <si>
+    <t>2_2</t>
+  </si>
+  <si>
+    <t>2_3</t>
+  </si>
+  <si>
+    <t>2_4</t>
+  </si>
+  <si>
+    <t>Chủ sở hữu-Loại giấy tờ-CCCD</t>
+  </si>
+  <si>
+    <t>Chủ sở hữu-Loại giấy tờ-Hộ chiếu</t>
+  </si>
+  <si>
+    <t>Chủ sở hữu-Loại giấy tờ-Hộ chiếu nước ngoài</t>
+  </si>
+  <si>
+    <t>Chủ sở hữu-Loại giấy tờ-Loại khác</t>
+  </si>
+  <si>
+    <t>VonDieuLe</t>
+  </si>
+  <si>
+    <t>Vốn điều lệ</t>
+  </si>
+  <si>
+    <t>VonDieuLe_BangChu</t>
+  </si>
+  <si>
+    <t>Vốn điều lệ bằng chữ</t>
+  </si>
+  <si>
+    <t>3_1</t>
+  </si>
+  <si>
+    <t>3_2</t>
+  </si>
+  <si>
+    <t>3_3</t>
+  </si>
+  <si>
+    <t>3_4</t>
+  </si>
+  <si>
+    <t>Đại diện pháp luật-Loại giấy tờ-CCCD</t>
+  </si>
+  <si>
+    <t>Đại diện pháp luật-Loại giấy tờ-Hộ chiếu</t>
+  </si>
+  <si>
+    <t>Đại diện pháp luật-Loại giấy tờ-Hộ chiếu nước ngoài</t>
+  </si>
+  <si>
+    <t>Đại diện pháp luật-Loại giấy tờ-Loại khác</t>
+  </si>
+  <si>
+    <t>TongSoLaoDong</t>
+  </si>
+  <si>
+    <t>Tổng số lao động</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -492,6 +582,12 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -513,14 +609,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -801,16 +901,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C66"/>
+  <dimension ref="A1:C80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="B66" sqref="B66"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="32" customWidth="1"/>
-    <col min="2" max="2" width="46.109375" customWidth="1"/>
+    <col min="2" max="2" width="46.109375" style="10" customWidth="1"/>
     <col min="3" max="3" width="183.109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -818,7 +918,7 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -829,599 +929,726 @@
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="7" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:3" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="7">
         <v>3</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:3" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="7">
         <v>3</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:3" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="7">
         <v>2025</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:3" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>132</v>
+        <v>127</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>128</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7" spans="1:3" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:3" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:3" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="3"/>
+      <c r="B9" s="7"/>
       <c r="C9" s="4" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:3" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="B10" s="6">
+        <v>130</v>
+      </c>
+      <c r="B10" s="9">
         <v>3703061033</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="B11" s="3"/>
+        <v>111</v>
+      </c>
+      <c r="B11" s="7"/>
       <c r="C11" s="4" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="B12" s="3"/>
+        <v>113</v>
+      </c>
+      <c r="B12" s="7"/>
       <c r="C12" s="4" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="B13" s="3"/>
+        <v>114</v>
+      </c>
+      <c r="B13" s="7"/>
       <c r="C13" s="4" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="B14" s="3"/>
+        <v>115</v>
+      </c>
+      <c r="B14" s="7"/>
       <c r="C14" s="4" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="B15" s="3"/>
+        <v>116</v>
+      </c>
+      <c r="B15" s="7"/>
       <c r="C15" s="4" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="B16" s="3"/>
+        <v>117</v>
+      </c>
+      <c r="B16" s="7"/>
       <c r="C16" s="4" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="B17" s="3"/>
+        <v>118</v>
+      </c>
+      <c r="B17" s="7"/>
       <c r="C17" s="4" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="B18" s="3"/>
+        <v>119</v>
+      </c>
+      <c r="B18" s="7"/>
       <c r="C18" s="4" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>7</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="B19" s="7"/>
       <c r="C19" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" s="3"/>
+        <v>155</v>
+      </c>
+      <c r="B20" s="7"/>
       <c r="C20" s="4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B21" s="3"/>
+        <v>165</v>
+      </c>
+      <c r="B21" s="7"/>
       <c r="C21" s="4" t="s">
-        <v>102</v>
+        <v>166</v>
       </c>
     </row>
     <row r="22" spans="1:3" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B22" s="3"/>
+        <v>14</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>7</v>
+      </c>
       <c r="C22" s="4" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="23" spans="1:3" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B23" s="3"/>
+        <v>22</v>
+      </c>
+      <c r="B23" s="7"/>
       <c r="C23" s="4" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="24" spans="1:3" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B24" s="3"/>
+        <v>15</v>
+      </c>
+      <c r="B24" s="7"/>
       <c r="C24" s="4" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="25" spans="1:3" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B25" s="3"/>
+        <v>16</v>
+      </c>
+      <c r="B25" s="7"/>
       <c r="C25" s="4" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:3" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B26" s="3"/>
+        <v>17</v>
+      </c>
+      <c r="B26" s="7"/>
       <c r="C26" s="4" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="27" spans="1:3" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B27" s="3"/>
+        <v>18</v>
+      </c>
+      <c r="B27" s="7"/>
       <c r="C27" s="4" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B28" s="3"/>
+        <v>157</v>
+      </c>
+      <c r="B28" s="7"/>
       <c r="C28" s="4" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="B29" s="3"/>
+        <v>158</v>
+      </c>
+      <c r="B29" s="7"/>
       <c r="C29" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="B30" s="3"/>
+        <v>159</v>
+      </c>
+      <c r="B30" s="7"/>
       <c r="C30" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B31" s="3"/>
+        <v>160</v>
+      </c>
+      <c r="B31" s="7"/>
       <c r="C31" s="4" t="s">
-        <v>25</v>
+        <v>164</v>
       </c>
     </row>
     <row r="32" spans="1:3" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B32" s="3"/>
+        <v>19</v>
+      </c>
+      <c r="B32" s="7"/>
       <c r="C32" s="4" t="s">
-        <v>27</v>
+        <v>103</v>
       </c>
     </row>
     <row r="33" spans="1:3" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B33" s="3"/>
+        <v>20</v>
+      </c>
+      <c r="B33" s="7"/>
       <c r="C33" s="4" t="s">
-        <v>29</v>
+        <v>104</v>
       </c>
     </row>
     <row r="34" spans="1:3" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B34" s="3"/>
+        <v>21</v>
+      </c>
+      <c r="B34" s="7"/>
       <c r="C34" s="4" t="s">
-        <v>31</v>
+        <v>105</v>
       </c>
     </row>
     <row r="35" spans="1:3" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B35" s="3"/>
+        <v>109</v>
+      </c>
+      <c r="B35" s="7"/>
       <c r="C35" s="4" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36" spans="1:3" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B36" s="3"/>
+        <v>110</v>
+      </c>
+      <c r="B36" s="7"/>
       <c r="C36" s="4" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
     </row>
     <row r="37" spans="1:3" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B37" s="3"/>
+        <v>23</v>
+      </c>
+      <c r="B37" s="7"/>
       <c r="C37" s="4" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
     </row>
     <row r="38" spans="1:3" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B38" s="3"/>
+        <v>25</v>
+      </c>
+      <c r="B38" s="7"/>
       <c r="C38" s="4" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
     </row>
     <row r="39" spans="1:3" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B39" s="3"/>
+        <v>27</v>
+      </c>
+      <c r="B39" s="7"/>
       <c r="C39" s="4" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
     </row>
     <row r="40" spans="1:3" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B40" s="3"/>
+        <v>29</v>
+      </c>
+      <c r="B40" s="7"/>
       <c r="C40" s="4" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
     </row>
     <row r="41" spans="1:3" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B41" s="3"/>
+        <v>31</v>
+      </c>
+      <c r="B41" s="7"/>
       <c r="C41" s="4" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
     </row>
     <row r="42" spans="1:3" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A42" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B42" s="7"/>
+      <c r="C42" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A43" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B43" s="7"/>
+      <c r="C43" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A44" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B44" s="7"/>
+      <c r="C44" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A45" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B45" s="7"/>
+      <c r="C45" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A46" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B46" s="7"/>
+      <c r="C46" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A47" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B47" s="7"/>
+      <c r="C47" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A48" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B48" s="7"/>
+      <c r="C48" s="4" t="s">
         <v>44</v>
-      </c>
-      <c r="B42" s="3"/>
-      <c r="C42" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A43" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B43" s="3"/>
-      <c r="C43" s="4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A44" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B44" s="3"/>
-      <c r="C44" s="4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A45" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B45" s="3"/>
-      <c r="C45" s="4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A46" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B46" s="3"/>
-      <c r="C46" s="4" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A47" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B47" s="3"/>
-      <c r="C47" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A48" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B48" s="3"/>
-      <c r="C48" s="4" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A49" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B49" s="3"/>
+        <v>53</v>
+      </c>
+      <c r="B49" s="7"/>
       <c r="C49" s="4" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A50" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B50" s="3"/>
+        <v>54</v>
+      </c>
+      <c r="B50" s="7"/>
       <c r="C50" s="4" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A51" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B51" s="3"/>
+        <v>55</v>
+      </c>
+      <c r="B51" s="7"/>
       <c r="C51" s="4" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A52" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B52" s="3"/>
+        <v>56</v>
+      </c>
+      <c r="B52" s="7"/>
       <c r="C52" s="4" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A53" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B53" s="3"/>
+        <v>57</v>
+      </c>
+      <c r="B53" s="7"/>
       <c r="C53" s="4" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A54" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B54" s="3"/>
+        <v>145</v>
+      </c>
+      <c r="B54" s="7"/>
       <c r="C54" s="4" t="s">
-        <v>79</v>
+        <v>149</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A55" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B55" s="3"/>
+        <v>146</v>
+      </c>
+      <c r="B55" s="7"/>
       <c r="C55" s="4" t="s">
-        <v>80</v>
+        <v>150</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A56" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B56" s="3"/>
+        <v>147</v>
+      </c>
+      <c r="B56" s="7"/>
       <c r="C56" s="4" t="s">
-        <v>81</v>
+        <v>151</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A57" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B57" s="3"/>
+        <v>148</v>
+      </c>
+      <c r="B57" s="7"/>
       <c r="C57" s="4" t="s">
-        <v>82</v>
+        <v>152</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A58" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B58" s="3"/>
+        <v>58</v>
+      </c>
+      <c r="B58" s="7"/>
       <c r="C58" s="4" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A59" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B59" s="3"/>
+        <v>59</v>
+      </c>
+      <c r="B59" s="7"/>
       <c r="C59" s="4" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A60" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B60" s="3"/>
+        <v>60</v>
+      </c>
+      <c r="B60" s="7"/>
       <c r="C60" s="4" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A61" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B61" s="3"/>
+        <v>61</v>
+      </c>
+      <c r="B61" s="7"/>
       <c r="C61" s="4" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A62" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B62" s="3"/>
+        <v>62</v>
+      </c>
+      <c r="B62" s="7"/>
       <c r="C62" s="4" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A63" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B63" s="3"/>
+        <v>63</v>
+      </c>
+      <c r="B63" s="7"/>
       <c r="C63" s="4" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A64" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B64" s="3"/>
+        <v>64</v>
+      </c>
+      <c r="B64" s="7"/>
       <c r="C64" s="4" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A65" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B65" s="3"/>
+        <v>65</v>
+      </c>
+      <c r="B65" s="7"/>
       <c r="C65" s="4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" ht="16.8" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A66" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B66" s="7"/>
+      <c r="C66" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A67" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B67" s="7"/>
+      <c r="C67" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A68" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B68" s="7"/>
+      <c r="C68" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A69" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B69" s="7"/>
+      <c r="C69" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A70" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B70" s="7"/>
+      <c r="C70" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A71" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B71" s="7"/>
+      <c r="C71" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A72" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B72" s="7"/>
+      <c r="C72" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A73" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B73" s="7"/>
+      <c r="C73" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A74" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B74" s="7"/>
+      <c r="C74" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="A75" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B75" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="A76" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="A77" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="A78" s="3" t="s">
         <v>136</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="A79" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="A80" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -1517,74 +1744,74 @@
     </row>
     <row r="16" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="4" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="4" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="4" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="4" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="4" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="4" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="4" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="4" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
